--- a/detecting_introgression_with_coalescent_simulations/msms_calculations.xlsx
+++ b/detecting_introgression_with_coalescent_simulations/msms_calculations.xlsx
@@ -1,25 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maffe217/Documents/Doutoramento/Chapter-5-Winter-white-evo/wtjr_winter_camouflage_evolution/detecting_introgression_with_coalescent_simulations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maffe217/Dropbox/Mac/Documents/Doutoramento/Chapter-2-Colorado/wtjr_camouflage/detecting_introgression_with_coalescent_simulations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{363D1E51-C44B-4E4D-9694-6E805A09A096}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1832482D-5996-6945-A9A5-4136B38ED52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="2300" windowWidth="25040" windowHeight="13900" xr2:uid="{BA5445F9-0C4C-1E4B-A3BA-A5A824E967BC}"/>
+    <workbookView xWindow="940" yWindow="1220" windowWidth="25040" windowHeight="13900" xr2:uid="{BA5445F9-0C4C-1E4B-A3BA-A5A824E967BC}"/>
   </bookViews>
   <sheets>
     <sheet name="black_tailed_jackrabbits" sheetId="1" r:id="rId1"/>
     <sheet name="arctic hares" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -188,8 +196,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.000000000"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.000000000"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -354,8 +362,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -373,12 +381,37 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -389,31 +422,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -734,7 +742,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -748,29 +756,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="52" t="s">
+      <c r="C1" s="50"/>
+      <c r="D1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="51" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="56"/>
+      <c r="E2" s="52"/>
       <c r="F2" s="3" t="s">
         <v>18</v>
       </c>
@@ -780,7 +788,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="45" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1">
@@ -798,7 +806,7 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="45" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1">
@@ -814,7 +822,7 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="45" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1">
@@ -828,12 +836,12 @@
         <v>424911.60714285716</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="45" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="45" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="1">
@@ -856,7 +864,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="45" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1">
@@ -869,10 +877,10 @@
         <f>B7*$G$2/0.1</f>
         <v>8.5632399999999991E-8</v>
       </c>
-      <c r="E7" s="48"/>
+      <c r="E7" s="44"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="45" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="1">
@@ -900,7 +908,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="7">
@@ -909,7 +917,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="43" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
@@ -917,7 +925,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="16">
@@ -926,7 +934,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="43" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="16">
@@ -935,7 +943,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="43" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="17">
@@ -944,7 +952,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="43" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="17">
@@ -956,7 +964,7 @@
       <c r="C17" s="22"/>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="43" t="s">
         <v>26</v>
       </c>
       <c r="D18" t="s">
@@ -968,7 +976,7 @@
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="43" t="s">
         <v>28</v>
       </c>
       <c r="D19" t="s">
@@ -979,7 +987,7 @@
       <c r="C20" s="22"/>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C21" s="47" t="s">
+      <c r="C21" s="43" t="s">
         <v>30</v>
       </c>
       <c r="D21" t="s">
@@ -995,7 +1003,7 @@
       </c>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="43" t="s">
         <v>32</v>
       </c>
       <c r="D22" t="s">
@@ -1009,7 +1017,7 @@
         <f>E22/2</f>
         <v>42491.160714285717</v>
       </c>
-      <c r="G22" s="46" t="s">
+      <c r="G22" s="42" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1042,14 +1050,14 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="23"/>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="41"/>
+      <c r="C1" s="54"/>
       <c r="D1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="55" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="24"/>
@@ -1068,7 +1076,7 @@
       <c r="D2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="43"/>
+      <c r="E2" s="56"/>
       <c r="F2" s="25" t="s">
         <v>18</v>
       </c>
@@ -1217,7 +1225,7 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="41" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="33">
@@ -1233,10 +1241,10 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="24"/>
       <c r="B12" s="24"/>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="40" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="20"/>
@@ -1248,7 +1256,7 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="24"/>
       <c r="B13" s="24"/>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="41" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="33">
@@ -1264,7 +1272,7 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="24"/>
       <c r="B14" s="24"/>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="41" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="33">
@@ -1280,7 +1288,7 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="24"/>
       <c r="B15" s="24"/>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="41" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="34">
@@ -1296,7 +1304,7 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="24"/>
       <c r="B16" s="24"/>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="41" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="34">
@@ -1312,7 +1320,7 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="24"/>
       <c r="B17" s="24"/>
-      <c r="C17" s="46"/>
+      <c r="C17" s="42"/>
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
@@ -1323,7 +1331,7 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="24"/>
       <c r="B18" s="24"/>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="41" t="s">
         <v>26</v>
       </c>
       <c r="D18" s="20" t="s">
@@ -1341,7 +1349,7 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="24"/>
       <c r="B19" s="24"/>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="41" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="20" t="s">
@@ -1356,7 +1364,7 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="24"/>
       <c r="B20" s="24"/>
-      <c r="C20" s="46"/>
+      <c r="C20" s="42"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
@@ -1367,7 +1375,7 @@
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="24"/>
       <c r="B21" s="24"/>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="41" t="s">
         <v>30</v>
       </c>
       <c r="D21" s="20" t="s">
@@ -1388,7 +1396,7 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="24"/>
       <c r="B22" s="24"/>
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="41" t="s">
         <v>32</v>
       </c>
       <c r="D22" s="20" t="s">
@@ -1402,10 +1410,10 @@
         <f>E22/2</f>
         <v>42671.42857142858</v>
       </c>
-      <c r="G22" s="46" t="s">
+      <c r="G22" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="46"/>
+      <c r="H22" s="42"/>
       <c r="I22" s="24"/>
     </row>
   </sheetData>
